--- a/xlsx/摩菲定理_intext.xlsx
+++ b/xlsx/摩菲定理_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E7%8E%87</t>
   </si>
   <si>
-    <t>機率</t>
+    <t>机率</t>
   </si>
   <si>
     <t>政策_政策_管理_摩菲定理</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國空軍</t>
+    <t>美国空军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rocket_sled</t>
@@ -77,25 +77,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E7%A2%9F</t>
   </si>
   <si>
-    <t>軟碟</t>
+    <t>软碟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%99%90%E7%8C%B4%E5%AD%90%E5%AE%9A%E7%90%86</t>
   </si>
   <si>
-    <t>無限猴子定理</t>
+    <t>无限猴子定理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%9D%9E%EF%BC%8C%E9%80%99%E5%B0%B1%E6%98%AF%E6%84%9B%E6%83%85</t>
   </si>
   <si>
-    <t>莫非，這就是愛情</t>
+    <t>莫非，这就是爱情</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E8%89%AF%E5%8F%8D%E5%BA%94_(%E5%8C%BB%E5%AD%A6)</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9C%B0%E6%82%B2%E5%8A%87</t>
   </si>
   <si>
-    <t>公地悲劇</t>
+    <t>公地悲剧</t>
   </si>
 </sst>
 </file>
